--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3352,28 +3352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.5570309754521</v>
+        <v>192.0905916659366</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.5764807061516</v>
+        <v>262.8268219560223</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.0021639511091</v>
+        <v>237.7429989483777</v>
       </c>
       <c r="AD2" t="n">
-        <v>157557.0309754521</v>
+        <v>192090.5916659366</v>
       </c>
       <c r="AE2" t="n">
-        <v>215576.4807061515</v>
+        <v>262826.8219560223</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.363225427086447e-06</v>
+        <v>4.848642415226055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.039351851851851</v>
       </c>
       <c r="AH2" t="n">
-        <v>195002.1639511091</v>
+        <v>237742.9989483777</v>
       </c>
     </row>
     <row r="3">
@@ -3458,28 +3458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.8292382388292</v>
+        <v>138.2773685661911</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.063744381013</v>
+        <v>189.1971960391379</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.505380005045</v>
+        <v>171.1404811891482</v>
       </c>
       <c r="AD3" t="n">
-        <v>103829.2382388292</v>
+        <v>138277.3685661911</v>
       </c>
       <c r="AE3" t="n">
-        <v>142063.744381013</v>
+        <v>189197.1960391378</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.50413501621223e-06</v>
+        <v>6.493451169709587e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.747685185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>128505.380005045</v>
+        <v>171140.4811891482</v>
       </c>
     </row>
     <row r="4">
@@ -3564,28 +3564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.25339652805455</v>
+        <v>123.0682485684841</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.066387646674</v>
+        <v>168.3874070792666</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.366718369559</v>
+        <v>152.3167492808782</v>
       </c>
       <c r="AD4" t="n">
-        <v>97253.39652805455</v>
+        <v>123068.2485684841</v>
       </c>
       <c r="AE4" t="n">
-        <v>133066.387646674</v>
+        <v>168387.4070792666</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.950541364378734e-06</v>
+        <v>7.137019316142564e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.140046296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>120366.7183695589</v>
+        <v>152316.7492808782</v>
       </c>
     </row>
     <row r="5">
@@ -3670,28 +3670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.89178759274552</v>
+        <v>111.7918909791956</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.5209330625814</v>
+        <v>152.9585971478232</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.3049001527847</v>
+        <v>138.3604433148162</v>
       </c>
       <c r="AD5" t="n">
-        <v>85891.78759274552</v>
+        <v>111791.8909791956</v>
       </c>
       <c r="AE5" t="n">
-        <v>117520.9330625814</v>
+        <v>152958.5971478232</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.144229201089096e-06</v>
+        <v>7.416252177794896e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.908564814814816</v>
       </c>
       <c r="AH5" t="n">
-        <v>106304.9001527847</v>
+        <v>138360.4433148162</v>
       </c>
     </row>
     <row r="6">
@@ -3776,28 +3776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.05394842903915</v>
+        <v>109.9540518154893</v>
       </c>
       <c r="AB6" t="n">
-        <v>115.0063204390581</v>
+        <v>150.4439845242999</v>
       </c>
       <c r="AC6" t="n">
-        <v>104.0302786287686</v>
+        <v>136.0858217908001</v>
       </c>
       <c r="AD6" t="n">
-        <v>84053.94842903916</v>
+        <v>109954.0518154893</v>
       </c>
       <c r="AE6" t="n">
-        <v>115006.3204390581</v>
+        <v>150443.9845242999</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.281774874718282e-06</v>
+        <v>7.614546880795834e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.752314814814814</v>
       </c>
       <c r="AH6" t="n">
-        <v>104030.2786287686</v>
+        <v>136085.8217908001</v>
       </c>
     </row>
     <row r="7">
@@ -3882,28 +3882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>82.79582892063668</v>
+        <v>108.6959323070868</v>
       </c>
       <c r="AB7" t="n">
-        <v>113.2849058233472</v>
+        <v>148.7225699085891</v>
       </c>
       <c r="AC7" t="n">
-        <v>102.4731534079601</v>
+        <v>134.5286965699916</v>
       </c>
       <c r="AD7" t="n">
-        <v>82795.82892063668</v>
+        <v>108695.9323070868</v>
       </c>
       <c r="AE7" t="n">
-        <v>113284.9058233472</v>
+        <v>148722.5699085891</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.355825810120019e-06</v>
+        <v>7.721303479204128e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.677083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>102473.1534079601</v>
+        <v>134528.6965699916</v>
       </c>
     </row>
     <row r="8">
@@ -3988,28 +3988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>81.54628172796833</v>
+        <v>107.4463851144184</v>
       </c>
       <c r="AB8" t="n">
-        <v>111.5752202282078</v>
+        <v>147.0128843134495</v>
       </c>
       <c r="AC8" t="n">
-        <v>100.9266378064613</v>
+        <v>132.9821809684929</v>
       </c>
       <c r="AD8" t="n">
-        <v>81546.28172796834</v>
+        <v>107446.3851144184</v>
       </c>
       <c r="AE8" t="n">
-        <v>111575.2202282077</v>
+        <v>147012.8843134496</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.433080367549775e-06</v>
+        <v>7.832678625486823e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.596064814814816</v>
       </c>
       <c r="AH8" t="n">
-        <v>100926.6378064613</v>
+        <v>132982.1809684928</v>
       </c>
     </row>
     <row r="9">
@@ -4094,28 +4094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>80.20672599777856</v>
+        <v>106.1068293842287</v>
       </c>
       <c r="AB9" t="n">
-        <v>109.7423809811351</v>
+        <v>145.1800450663769</v>
       </c>
       <c r="AC9" t="n">
-        <v>99.26872216472266</v>
+        <v>131.3242653267542</v>
       </c>
       <c r="AD9" t="n">
-        <v>80206.72599777856</v>
+        <v>106106.8293842287</v>
       </c>
       <c r="AE9" t="n">
-        <v>109742.3809811351</v>
+        <v>145180.0450663769</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.517424908156294e-06</v>
+        <v>7.954275148212866e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.50925925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>99268.72216472265</v>
+        <v>131324.2653267542</v>
       </c>
     </row>
     <row r="10">
@@ -4200,28 +4200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>79.36720714526784</v>
+        <v>105.0967183311258</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.5937142501726</v>
+        <v>143.7979665605676</v>
       </c>
       <c r="AC10" t="n">
-        <v>98.22968257439902</v>
+        <v>130.0740904537795</v>
       </c>
       <c r="AD10" t="n">
-        <v>79367.20714526784</v>
+        <v>105096.7183311258</v>
       </c>
       <c r="AE10" t="n">
-        <v>108593.7142501726</v>
+        <v>143797.9665605676</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.539587670382914e-06</v>
+        <v>7.986226413835774e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AH10" t="n">
-        <v>98229.68257439902</v>
+        <v>130074.0904537795</v>
       </c>
     </row>
     <row r="11">
@@ -4306,28 +4306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>79.42092208548874</v>
+        <v>105.1504332713467</v>
       </c>
       <c r="AB11" t="n">
-        <v>108.6672094011187</v>
+        <v>143.8714617115137</v>
       </c>
       <c r="AC11" t="n">
-        <v>98.29616345128996</v>
+        <v>130.1405713306704</v>
       </c>
       <c r="AD11" t="n">
-        <v>79420.92208548874</v>
+        <v>105150.4332713467</v>
       </c>
       <c r="AE11" t="n">
-        <v>108667.2094011187</v>
+        <v>143871.4617115137</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.542843810804834e-06</v>
+        <v>7.990920675609755e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AH11" t="n">
-        <v>98296.16345128996</v>
+        <v>130140.5713306704</v>
       </c>
     </row>
     <row r="12">
@@ -4412,28 +4412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>79.45732475146112</v>
+        <v>105.186835937319</v>
       </c>
       <c r="AB12" t="n">
-        <v>108.7170171346744</v>
+        <v>143.9212694450693</v>
       </c>
       <c r="AC12" t="n">
-        <v>98.34121760466067</v>
+        <v>130.1856254840412</v>
       </c>
       <c r="AD12" t="n">
-        <v>79457.32475146111</v>
+        <v>105186.835937319</v>
       </c>
       <c r="AE12" t="n">
-        <v>108717.0171346744</v>
+        <v>143921.2694450693</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.540427964685344e-06</v>
+        <v>7.987437836229059e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AH12" t="n">
-        <v>98341.21760466068</v>
+        <v>130185.6254840412</v>
       </c>
     </row>
   </sheetData>
@@ -4709,28 +4709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.8915964814859</v>
+        <v>161.8080325473572</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.0409715498386</v>
+        <v>221.3928885977826</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.3851314581169</v>
+        <v>200.2634620369445</v>
       </c>
       <c r="AD2" t="n">
-        <v>119891.5964814859</v>
+        <v>161808.0325473572</v>
       </c>
       <c r="AE2" t="n">
-        <v>164040.9715498386</v>
+        <v>221392.8885977826</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.967088952590085e-06</v>
+        <v>5.807668988859569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.92824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>148385.1314581169</v>
+        <v>200263.4620369445</v>
       </c>
     </row>
     <row r="3">
@@ -4815,28 +4815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.83184741058498</v>
+        <v>118.9988667295732</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.3848731960609</v>
+        <v>162.8194993188152</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.132001087564</v>
+        <v>147.2802348224749</v>
       </c>
       <c r="AD3" t="n">
-        <v>93831.84741058499</v>
+        <v>118998.8667295732</v>
       </c>
       <c r="AE3" t="n">
-        <v>128384.8731960609</v>
+        <v>162819.4993188152</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.021842714290243e-06</v>
+        <v>7.351788817256557e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.261574074074075</v>
       </c>
       <c r="AH3" t="n">
-        <v>116132.001087564</v>
+        <v>147280.2348224749</v>
       </c>
     </row>
     <row r="4">
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.09976534978728</v>
+        <v>106.352036014796</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.9642768206684</v>
+        <v>145.515547596072</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.3740019802729</v>
+        <v>131.627747965896</v>
       </c>
       <c r="AD4" t="n">
-        <v>81099.76534978728</v>
+        <v>106352.036014796</v>
       </c>
       <c r="AE4" t="n">
-        <v>110964.2768206684</v>
+        <v>145515.547596072</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.377538236998132e-06</v>
+        <v>7.872513681607802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.844907407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>100374.0019802729</v>
+        <v>131627.747965896</v>
       </c>
     </row>
     <row r="5">
@@ -5027,28 +5027,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.58101598936364</v>
+        <v>103.8332866543724</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.5180128263591</v>
+        <v>142.0692836017627</v>
       </c>
       <c r="AC5" t="n">
-        <v>97.25664458471752</v>
+        <v>128.5103905703407</v>
       </c>
       <c r="AD5" t="n">
-        <v>78581.01598936363</v>
+        <v>103833.2866543724</v>
       </c>
       <c r="AE5" t="n">
-        <v>107518.0128263591</v>
+        <v>142069.2836017627</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.592194264219587e-06</v>
+        <v>8.186762030325044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>97256.64458471752</v>
+        <v>128510.3905703406</v>
       </c>
     </row>
     <row r="6">
@@ -5133,28 +5133,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>77.1044335713264</v>
+        <v>102.3567042363351</v>
       </c>
       <c r="AB6" t="n">
-        <v>105.4976876197828</v>
+        <v>140.0489583951864</v>
       </c>
       <c r="AC6" t="n">
-        <v>95.42913638031197</v>
+        <v>126.6828823659351</v>
       </c>
       <c r="AD6" t="n">
-        <v>77104.4335713264</v>
+        <v>102356.7042363351</v>
       </c>
       <c r="AE6" t="n">
-        <v>105497.6876197828</v>
+        <v>140048.9583951864</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.697430590397253e-06</v>
+        <v>8.340824052968752e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>95429.13638031197</v>
+        <v>126682.8823659351</v>
       </c>
     </row>
     <row r="7">
@@ -5239,28 +5239,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>75.61920504997678</v>
+        <v>100.7008835143933</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.4655324332154</v>
+        <v>137.783391433772</v>
       </c>
       <c r="AC7" t="n">
-        <v>93.59092723260214</v>
+        <v>124.6335379355743</v>
       </c>
       <c r="AD7" t="n">
-        <v>75619.20504997678</v>
+        <v>100700.8835143933</v>
       </c>
       <c r="AE7" t="n">
-        <v>103465.5324332154</v>
+        <v>137783.391433772</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.773437622055774e-06</v>
+        <v>8.452095488011884e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.445601851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>93590.92723260215</v>
+        <v>124633.5379355742</v>
       </c>
     </row>
     <row r="8">
@@ -5345,28 +5345,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>74.75997443272377</v>
+        <v>99.84165289714032</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.2898951961108</v>
+        <v>136.6077541966676</v>
       </c>
       <c r="AC8" t="n">
-        <v>92.52749116338929</v>
+        <v>123.5701018663614</v>
       </c>
       <c r="AD8" t="n">
-        <v>74759.97443272377</v>
+        <v>99841.65289714032</v>
       </c>
       <c r="AE8" t="n">
-        <v>102289.8951961109</v>
+        <v>136607.7541966676</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.845043960673308e-06</v>
+        <v>8.556924473992478e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.381944444444446</v>
       </c>
       <c r="AH8" t="n">
-        <v>92527.49116338929</v>
+        <v>123570.1018663614</v>
       </c>
     </row>
     <row r="9">
@@ -5451,28 +5451,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>74.85921565104117</v>
+        <v>99.94089411545772</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.4256814092262</v>
+        <v>136.7435404097829</v>
       </c>
       <c r="AC9" t="n">
-        <v>92.65031813090212</v>
+        <v>123.6929288338742</v>
       </c>
       <c r="AD9" t="n">
-        <v>74859.21565104117</v>
+        <v>99940.89411545772</v>
       </c>
       <c r="AE9" t="n">
-        <v>102425.6814092262</v>
+        <v>136743.5404097829</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.840860585807185e-06</v>
+        <v>8.550800170562657e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.381944444444446</v>
       </c>
       <c r="AH9" t="n">
-        <v>92650.31813090212</v>
+        <v>123692.9288338742</v>
       </c>
     </row>
   </sheetData>
@@ -5748,28 +5748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.67436076055559</v>
+        <v>100.5728339883713</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.33153420841327</v>
+        <v>137.6081884231224</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.23322638223436</v>
+        <v>124.475056054362</v>
       </c>
       <c r="AD2" t="n">
-        <v>69674.36076055559</v>
+        <v>100572.8339883713</v>
       </c>
       <c r="AE2" t="n">
-        <v>95331.53420841327</v>
+        <v>137608.1884231225</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.874269792898252e-06</v>
+        <v>9.088220447858075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.972222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>86233.22638223437</v>
+        <v>124475.056054362</v>
       </c>
     </row>
     <row r="3">
@@ -5854,28 +5854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.40587115873464</v>
+        <v>87.5371451608617</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.12295430584828</v>
+        <v>119.7721838753297</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.71262322826247</v>
+        <v>108.3412947476154</v>
       </c>
       <c r="AD3" t="n">
-        <v>64405.87115873465</v>
+        <v>87537.14516086169</v>
       </c>
       <c r="AE3" t="n">
-        <v>88122.95430584828</v>
+        <v>119772.1838753297</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.579203992634268e-06</v>
+        <v>1.01788406669329e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.329861111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>79712.62322826247</v>
+        <v>108341.2947476154</v>
       </c>
     </row>
     <row r="4">
@@ -5960,28 +5960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.19784425385591</v>
+        <v>87.32911825598293</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.83832271709399</v>
+        <v>119.4875522865755</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.45515647885584</v>
+        <v>108.0838279982088</v>
       </c>
       <c r="AD4" t="n">
-        <v>64197.8442538559</v>
+        <v>87329.11825598293</v>
       </c>
       <c r="AE4" t="n">
-        <v>87838.32271709399</v>
+        <v>119487.5522865755</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.613517095235799e-06</v>
+        <v>1.023192727202375e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.306712962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>79455.15647885585</v>
+        <v>108083.8279982088</v>
       </c>
     </row>
   </sheetData>
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.99393985230435</v>
+        <v>112.1436772421094</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.3971905245208</v>
+        <v>153.4399266324562</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.9066516394101</v>
+        <v>138.7958353889861</v>
       </c>
       <c r="AD2" t="n">
-        <v>87993.93985230435</v>
+        <v>112143.6772421094</v>
       </c>
       <c r="AE2" t="n">
-        <v>120397.1905245208</v>
+        <v>153439.9266324562</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.110224568721829e-06</v>
+        <v>7.723051568080283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.568287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>108906.6516394101</v>
+        <v>138795.8353889861</v>
       </c>
     </row>
     <row r="3">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.74233745216112</v>
+        <v>95.80673398739454</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.16103115055931</v>
+        <v>131.0870001362971</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.79268010744678</v>
+        <v>118.5762408250839</v>
       </c>
       <c r="AD3" t="n">
-        <v>71742.33745216113</v>
+        <v>95806.73398739453</v>
       </c>
       <c r="AE3" t="n">
-        <v>98161.03115055931</v>
+        <v>131087.0001362971</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.955007697784863e-06</v>
+        <v>8.999767215672635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.636574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>88792.68010744678</v>
+        <v>118576.2408250839</v>
       </c>
     </row>
     <row r="4">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.93648766533457</v>
+        <v>92.83029199997578</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.32194368686888</v>
+        <v>127.0145008977598</v>
       </c>
       <c r="AC4" t="n">
-        <v>85.31998976309664</v>
+        <v>114.8924151980828</v>
       </c>
       <c r="AD4" t="n">
-        <v>68936.48766533457</v>
+        <v>92830.29199997579</v>
       </c>
       <c r="AE4" t="n">
-        <v>94321.94368686888</v>
+        <v>127014.5008977598</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.244992295156494e-06</v>
+        <v>9.438019188620717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.376157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>85319.98976309664</v>
+        <v>114892.4151980828</v>
       </c>
     </row>
     <row r="5">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.93711617210575</v>
+        <v>91.83092050674698</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.95455952067526</v>
+        <v>125.6471167315662</v>
       </c>
       <c r="AC5" t="n">
-        <v>84.08310682258839</v>
+        <v>113.6555322575745</v>
       </c>
       <c r="AD5" t="n">
-        <v>67937.11617210574</v>
+        <v>91830.92050674697</v>
       </c>
       <c r="AE5" t="n">
-        <v>92954.55952067526</v>
+        <v>125647.1167315662</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.348458799498692e-06</v>
+        <v>9.594387492568594e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.289351851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>84083.10682258839</v>
+        <v>113655.5322575745</v>
       </c>
     </row>
   </sheetData>
@@ -6872,28 +6872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.71619964253297</v>
+        <v>85.39263455395611</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.81107119433599</v>
+        <v>116.8379698538322</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.62138299616383</v>
+        <v>105.6871179941334</v>
       </c>
       <c r="AD2" t="n">
-        <v>62716.19964253297</v>
+        <v>85392.63455395612</v>
       </c>
       <c r="AE2" t="n">
-        <v>85811.07119433599</v>
+        <v>116837.9698538322</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.518116132459938e-06</v>
+        <v>1.030180426701084e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.590277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>77621.38299616383</v>
+        <v>105687.1179941334</v>
       </c>
     </row>
     <row r="3">
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.10729583248119</v>
+        <v>83.61313854331213</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.60969802159765</v>
+        <v>114.403184906247</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.63010578938427</v>
+        <v>103.4847055047028</v>
       </c>
       <c r="AD3" t="n">
-        <v>61107.29583248119</v>
+        <v>83613.13854331213</v>
       </c>
       <c r="AE3" t="n">
-        <v>83609.69802159765</v>
+        <v>114403.184906247</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.793138410278249e-06</v>
+        <v>1.073647367417933e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>75630.10578938428</v>
+        <v>103484.7055047028</v>
       </c>
     </row>
   </sheetData>
@@ -7275,28 +7275,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.0596011366062</v>
+        <v>166.8710804003465</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.0580164503305</v>
+        <v>228.3203740361459</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.6826548803929</v>
+        <v>206.5297979878595</v>
       </c>
       <c r="AD2" t="n">
-        <v>133059.6011366062</v>
+        <v>166871.0804003465</v>
       </c>
       <c r="AE2" t="n">
-        <v>182058.0164503305</v>
+        <v>228320.3740361459</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.808101988471386e-06</v>
+        <v>5.551779675757559e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.182870370370372</v>
       </c>
       <c r="AH2" t="n">
-        <v>164682.6548803929</v>
+        <v>206529.7979878595</v>
       </c>
     </row>
     <row r="3">
@@ -7381,28 +7381,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.40381500939739</v>
+        <v>121.7411116206975</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.9039527319566</v>
+        <v>166.5715597581558</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.3152246116141</v>
+        <v>150.674203879536</v>
       </c>
       <c r="AD3" t="n">
-        <v>96403.8150093974</v>
+        <v>121741.1116206975</v>
       </c>
       <c r="AE3" t="n">
-        <v>131903.9527319566</v>
+        <v>166571.5597581558</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.873033122251156e-06</v>
+        <v>7.10432817432685e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.394675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>119315.2246116141</v>
+        <v>150674.203879536</v>
       </c>
     </row>
     <row r="4">
@@ -7487,28 +7487,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.87376095438088</v>
+        <v>108.2963089117015</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.3915358700347</v>
+        <v>148.1757875488832</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.5696068326479</v>
+        <v>134.0340983512821</v>
       </c>
       <c r="AD4" t="n">
-        <v>82873.76095438088</v>
+        <v>108296.3089117015</v>
       </c>
       <c r="AE4" t="n">
-        <v>113391.5358700347</v>
+        <v>148175.7875488832</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.267529831751352e-06</v>
+        <v>7.679459518126697e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.914351851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>102569.6068326479</v>
+        <v>134034.0983512821</v>
       </c>
     </row>
     <row r="5">
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>80.64422610827974</v>
+        <v>106.0667740656004</v>
       </c>
       <c r="AB5" t="n">
-        <v>110.3409879334651</v>
+        <v>145.1252396123137</v>
       </c>
       <c r="AC5" t="n">
-        <v>99.81019890967268</v>
+        <v>131.2746904283068</v>
       </c>
       <c r="AD5" t="n">
-        <v>80644.22610827973</v>
+        <v>106066.7740656004</v>
       </c>
       <c r="AE5" t="n">
-        <v>110340.9879334651</v>
+        <v>145125.2396123137</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.456459673929076e-06</v>
+        <v>7.954897744603244e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.711805555555554</v>
       </c>
       <c r="AH5" t="n">
-        <v>99810.19890967268</v>
+        <v>131274.6904283068</v>
       </c>
     </row>
     <row r="6">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>78.64732170872695</v>
+        <v>104.0698696660476</v>
       </c>
       <c r="AB6" t="n">
-        <v>107.6087352367939</v>
+        <v>142.3929869156424</v>
       </c>
       <c r="AC6" t="n">
-        <v>97.33870857563009</v>
+        <v>128.8032000942642</v>
       </c>
       <c r="AD6" t="n">
-        <v>78647.32170872694</v>
+        <v>104069.8696660476</v>
       </c>
       <c r="AE6" t="n">
-        <v>107608.7352367939</v>
+        <v>142392.9869156424</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.609154183024552e-06</v>
+        <v>8.17750897580515e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.555555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>97338.70857563009</v>
+        <v>128803.2000942642</v>
       </c>
     </row>
     <row r="7">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>77.49091571970763</v>
+        <v>102.7428714764361</v>
       </c>
       <c r="AB7" t="n">
-        <v>106.0264895455868</v>
+        <v>140.5773294495885</v>
       </c>
       <c r="AC7" t="n">
-        <v>95.90747019249555</v>
+        <v>127.1608264284787</v>
       </c>
       <c r="AD7" t="n">
-        <v>77490.91571970763</v>
+        <v>102742.8714764361</v>
       </c>
       <c r="AE7" t="n">
-        <v>106026.4895455868</v>
+        <v>140577.3294495885</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.681140275641143e-06</v>
+        <v>8.282456513222976e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AH7" t="n">
-        <v>95907.47019249556</v>
+        <v>127160.8264284787</v>
       </c>
     </row>
     <row r="8">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>76.0443917391664</v>
+        <v>101.2963474958948</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.0472916192772</v>
+        <v>138.5981315232788</v>
       </c>
       <c r="AC8" t="n">
-        <v>94.11716413845055</v>
+        <v>125.3705203744337</v>
       </c>
       <c r="AD8" t="n">
-        <v>76044.3917391664</v>
+        <v>101296.3474958948</v>
       </c>
       <c r="AE8" t="n">
-        <v>104047.2916192772</v>
+        <v>138598.1315232788</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.76631753706182e-06</v>
+        <v>8.406635274774955e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.405092592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>94117.16413845055</v>
+        <v>125370.5203744337</v>
       </c>
     </row>
     <row r="9">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>75.92664107586704</v>
+        <v>101.1785968325955</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.8861799669584</v>
+        <v>138.4370198709601</v>
       </c>
       <c r="AC9" t="n">
-        <v>93.97142875610743</v>
+        <v>125.2247849920905</v>
       </c>
       <c r="AD9" t="n">
-        <v>75926.64107586704</v>
+        <v>101178.5968325955</v>
       </c>
       <c r="AE9" t="n">
-        <v>103886.1799669584</v>
+        <v>138437.0198709601</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.765832963513915e-06</v>
+        <v>8.405928821643496e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.405092592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>93971.42875610743</v>
+        <v>125224.7849920905</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.38694254000578</v>
+        <v>81.52243628254467</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.25583475020322</v>
+        <v>111.5425938377923</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.50089192494315</v>
+        <v>100.8971252329557</v>
       </c>
       <c r="AD2" t="n">
-        <v>59386.94254000578</v>
+        <v>81522.43628254467</v>
       </c>
       <c r="AE2" t="n">
-        <v>81255.83475020323</v>
+        <v>111542.5938377923</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.825745777969662e-06</v>
+        <v>1.093644808814107e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.462962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>73500.89192494315</v>
+        <v>100897.1252329557</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.5869438398956</v>
+        <v>81.72243758243448</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.52948535214696</v>
+        <v>111.816244439736</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.74842569750849</v>
+        <v>101.144659005521</v>
       </c>
       <c r="AD3" t="n">
-        <v>59586.9438398956</v>
+        <v>81722.43758243448</v>
       </c>
       <c r="AE3" t="n">
-        <v>81529.48535214696</v>
+        <v>111816.244439736</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.812729874870034e-06</v>
+        <v>1.091559355397005e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.474537037037038</v>
       </c>
       <c r="AH3" t="n">
-        <v>73748.4256975085</v>
+        <v>101144.6590055211</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.4452397178435</v>
+        <v>132.1449676923129</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.0113171313243</v>
+        <v>180.8065746210693</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.9807633560301</v>
+        <v>163.5506489029064</v>
       </c>
       <c r="AD2" t="n">
-        <v>107445.2397178435</v>
+        <v>132144.9676923129</v>
       </c>
       <c r="AE2" t="n">
-        <v>147011.3171313244</v>
+        <v>180806.5746210693</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.487449255950634e-06</v>
+        <v>6.663158500162011e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.216435185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>132980.7633560301</v>
+        <v>163550.6489029064</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.55796191196221</v>
+        <v>111.3201314907101</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.4864692205844</v>
+        <v>152.3131150031179</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.2281114564062</v>
+        <v>137.7765650800615</v>
       </c>
       <c r="AD3" t="n">
-        <v>78557.96191196221</v>
+        <v>111320.1314907101</v>
       </c>
       <c r="AE3" t="n">
-        <v>107486.4692205844</v>
+        <v>152313.1150031179</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.449849184319655e-06</v>
+        <v>8.092171486718643e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.943287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>97228.1114564062</v>
+        <v>137776.5650800615</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.01667500009769</v>
+        <v>99.71631346601606</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.6411242372214</v>
+        <v>136.436259257418</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.84519939776946</v>
+        <v>123.4149741634191</v>
       </c>
       <c r="AD4" t="n">
-        <v>75016.67500009769</v>
+        <v>99716.31346601606</v>
       </c>
       <c r="AE4" t="n">
-        <v>102641.1242372214</v>
+        <v>136436.259257418</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.793655405458635e-06</v>
+        <v>8.60266981530765e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.590277777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>92845.19939776947</v>
+        <v>123414.9741634191</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>73.17111404854748</v>
+        <v>97.70016031387365</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.1159463229089</v>
+        <v>133.6776695682586</v>
       </c>
       <c r="AC5" t="n">
-        <v>90.56102091948866</v>
+        <v>120.9196604024872</v>
       </c>
       <c r="AD5" t="n">
-        <v>73171.11404854748</v>
+        <v>97700.16031387365</v>
       </c>
       <c r="AE5" t="n">
-        <v>100115.9463229089</v>
+        <v>133677.6695682586</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.959345150585857e-06</v>
+        <v>8.84869310619392e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.434027777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>90561.02091948866</v>
+        <v>120919.6604024872</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>71.61173936335327</v>
+        <v>96.14078562867944</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.98234108387143</v>
+        <v>131.5440643292212</v>
       </c>
       <c r="AC6" t="n">
-        <v>88.63104396993047</v>
+        <v>118.9896834529291</v>
       </c>
       <c r="AD6" t="n">
-        <v>71611.73936335326</v>
+        <v>96140.78562867944</v>
       </c>
       <c r="AE6" t="n">
-        <v>97982.34108387143</v>
+        <v>131544.0643292211</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.070290108302799e-06</v>
+        <v>9.01342897191574e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.335648148148149</v>
       </c>
       <c r="AH6" t="n">
-        <v>88631.04396993047</v>
+        <v>118989.6834529291</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>71.66551509893741</v>
+        <v>96.19456136426359</v>
       </c>
       <c r="AB7" t="n">
-        <v>98.05591941771563</v>
+        <v>131.6176426630653</v>
       </c>
       <c r="AC7" t="n">
-        <v>88.69760009086045</v>
+        <v>119.0562395738591</v>
       </c>
       <c r="AD7" t="n">
-        <v>71665.51509893741</v>
+        <v>96194.56136426359</v>
       </c>
       <c r="AE7" t="n">
-        <v>98055.91941771563</v>
+        <v>131617.6426630653</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.067547271305761e-06</v>
+        <v>9.009356289059851e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.341435185185186</v>
       </c>
       <c r="AH7" t="n">
-        <v>88697.60009086045</v>
+        <v>119056.2395738591</v>
       </c>
     </row>
   </sheetData>
@@ -9544,28 +9544,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.2317412852474</v>
+        <v>149.6657657718338</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.0333962089317</v>
+        <v>204.7793035165159</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.8554720795684</v>
+        <v>185.2354541985155</v>
       </c>
       <c r="AD2" t="n">
-        <v>116231.7412852474</v>
+        <v>149665.7657718338</v>
       </c>
       <c r="AE2" t="n">
-        <v>159033.3962089318</v>
+        <v>204779.3035165159</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.103492035847138e-06</v>
+        <v>6.033949002330737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.737268518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>143855.4720795685</v>
+        <v>185235.4541985155</v>
       </c>
     </row>
     <row r="3">
@@ -9650,28 +9650,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.80165826411948</v>
+        <v>116.7919252830387</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.6070788402442</v>
+        <v>159.7998646682831</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.6193155264068</v>
+        <v>144.5487898649048</v>
       </c>
       <c r="AD3" t="n">
-        <v>91801.65826411948</v>
+        <v>116791.9252830387</v>
       </c>
       <c r="AE3" t="n">
-        <v>125607.0788402442</v>
+        <v>159799.8646682831</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.138154050258666e-06</v>
+        <v>7.555359979876137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.174768518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>113619.3155264068</v>
+        <v>144548.7898649049</v>
       </c>
     </row>
     <row r="4">
@@ -9756,28 +9756,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.06987061525896</v>
+        <v>104.1453889801987</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.1868852922528</v>
+        <v>142.4963157729409</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.86168080123488</v>
+        <v>128.8966673904452</v>
       </c>
       <c r="AD4" t="n">
-        <v>79069.87061525896</v>
+        <v>104145.3889801987</v>
       </c>
       <c r="AE4" t="n">
-        <v>108186.8852922528</v>
+        <v>142496.3157729409</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.516259532758168e-06</v>
+        <v>8.111342342939906e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.752314814814814</v>
       </c>
       <c r="AH4" t="n">
-        <v>97861.68080123488</v>
+        <v>128896.6673904452</v>
       </c>
     </row>
     <row r="5">
@@ -9862,28 +9862,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>76.73776078991885</v>
+        <v>101.8132791548586</v>
       </c>
       <c r="AB5" t="n">
-        <v>104.9959897437998</v>
+        <v>139.305420224488</v>
       </c>
       <c r="AC5" t="n">
-        <v>94.97531984547525</v>
+        <v>126.0103064346856</v>
       </c>
       <c r="AD5" t="n">
-        <v>76737.76078991886</v>
+        <v>101813.2791548586</v>
       </c>
       <c r="AE5" t="n">
-        <v>104995.9897437998</v>
+        <v>139305.420224488</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.720339965073318e-06</v>
+        <v>8.411430879777777e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.549768518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>94975.31984547526</v>
+        <v>126010.3064346856</v>
       </c>
     </row>
     <row r="6">
@@ -9968,28 +9968,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>75.14463790935521</v>
+        <v>100.0495640737028</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.8162087349926</v>
+        <v>136.8922274408339</v>
       </c>
       <c r="AC6" t="n">
-        <v>93.00357407680605</v>
+        <v>123.8274253833653</v>
       </c>
       <c r="AD6" t="n">
-        <v>75144.63790935521</v>
+        <v>100049.5640737028</v>
       </c>
       <c r="AE6" t="n">
-        <v>102816.2087349926</v>
+        <v>136892.2274408339</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.82860515544959e-06</v>
+        <v>8.570628614719449e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.445601851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>93003.57407680605</v>
+        <v>123827.4253833653</v>
       </c>
     </row>
     <row r="7">
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>73.86827498058605</v>
+        <v>98.77320114493361</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.0698326666932</v>
+        <v>135.1458513725345</v>
       </c>
       <c r="AC7" t="n">
-        <v>91.42386968941038</v>
+        <v>122.2477209959697</v>
       </c>
       <c r="AD7" t="n">
-        <v>73868.27498058605</v>
+        <v>98773.20114493361</v>
       </c>
       <c r="AE7" t="n">
-        <v>101069.8326666932</v>
+        <v>135145.8513725345</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.910105698964857e-06</v>
+        <v>8.690470475977463e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.37037037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>91423.86968941038</v>
+        <v>122247.7209959697</v>
       </c>
     </row>
     <row r="8">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>73.95271280543763</v>
+        <v>98.85763896978519</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.1853642237891</v>
+        <v>135.2613829296303</v>
       </c>
       <c r="AC8" t="n">
-        <v>91.52837507684656</v>
+        <v>122.3522263834058</v>
       </c>
       <c r="AD8" t="n">
-        <v>73952.71280543762</v>
+        <v>98857.63896978518</v>
       </c>
       <c r="AE8" t="n">
-        <v>101185.364223789</v>
+        <v>135261.3829296303</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.896833066710015e-06</v>
+        <v>8.670953833699912e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.381944444444446</v>
       </c>
       <c r="AH8" t="n">
-        <v>91528.37507684655</v>
+        <v>122352.2263834058</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.8756318342543</v>
+        <v>185.700267021328</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.4887427035569</v>
+        <v>254.0832978560468</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.8315714701583</v>
+        <v>229.833944516888</v>
       </c>
       <c r="AD2" t="n">
-        <v>142875.6318342543</v>
+        <v>185700.267021328</v>
       </c>
       <c r="AE2" t="n">
-        <v>195488.7427035569</v>
+        <v>254083.2978560468</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.516633536297913e-06</v>
+        <v>5.087768716333492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.709490740740742</v>
       </c>
       <c r="AH2" t="n">
-        <v>176831.5714701583</v>
+        <v>229833.9445168879</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.9847320133775</v>
+        <v>126.8160584929363</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.171765472594</v>
+        <v>173.5153259596042</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.9848461012176</v>
+        <v>156.9552667803574</v>
       </c>
       <c r="AD3" t="n">
-        <v>100984.7320133775</v>
+        <v>126816.0584929363</v>
       </c>
       <c r="AE3" t="n">
-        <v>138171.765472594</v>
+        <v>173515.3259596042</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.64437660368948e-06</v>
+        <v>6.719356380818164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>124984.8461012176</v>
+        <v>156955.2667803574</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.58186917114132</v>
+        <v>121.2426034501079</v>
       </c>
       <c r="AB4" t="n">
-        <v>130.779330174364</v>
+        <v>165.8894788865273</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.2979344525001</v>
+        <v>150.0572198489889</v>
       </c>
       <c r="AD4" t="n">
-        <v>95581.86917114133</v>
+        <v>121242.6034501079</v>
       </c>
       <c r="AE4" t="n">
-        <v>130779.330174364</v>
+        <v>165889.4788865273</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.029078705305897e-06</v>
+        <v>7.275932804693212e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH4" t="n">
-        <v>118297.9344525001</v>
+        <v>150057.2198489889</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.00187779663206</v>
+        <v>109.7478634216192</v>
       </c>
       <c r="AB5" t="n">
-        <v>114.9350751026045</v>
+        <v>150.161868467417</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.9658328472327</v>
+        <v>135.8306304944337</v>
       </c>
       <c r="AD5" t="n">
-        <v>84001.87779663206</v>
+        <v>109747.8634216192</v>
       </c>
       <c r="AE5" t="n">
-        <v>114935.0751026045</v>
+        <v>150161.8684674171</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.256713084960581e-06</v>
+        <v>7.605267966749453e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.827546296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>103965.8328472327</v>
+        <v>135830.6304944337</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>82.46585937759662</v>
+        <v>108.2118450025838</v>
       </c>
       <c r="AB6" t="n">
-        <v>112.8334269373312</v>
+        <v>148.0602203021437</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.0647630331707</v>
+        <v>133.9295606803717</v>
       </c>
       <c r="AD6" t="n">
-        <v>82465.85937759661</v>
+        <v>108211.8450025838</v>
       </c>
       <c r="AE6" t="n">
-        <v>112833.4269373312</v>
+        <v>148060.2203021437</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.361001393779122e-06</v>
+        <v>7.756149424714753e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.711805555555554</v>
       </c>
       <c r="AH6" t="n">
-        <v>102064.7630331707</v>
+        <v>133929.5606803717</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>80.9551067779979</v>
+        <v>106.7010924029851</v>
       </c>
       <c r="AB7" t="n">
-        <v>110.7663485808605</v>
+        <v>145.993141945673</v>
       </c>
       <c r="AC7" t="n">
-        <v>100.1949637338782</v>
+        <v>132.0597613810792</v>
       </c>
       <c r="AD7" t="n">
-        <v>80955.10677799789</v>
+        <v>106701.0924029851</v>
       </c>
       <c r="AE7" t="n">
-        <v>110766.3485808605</v>
+        <v>145993.141945673</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.471165845886424e-06</v>
+        <v>7.915532325235461e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.601851851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>100194.9637338782</v>
+        <v>132059.7613810792</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>79.60937828623557</v>
+        <v>105.3553639112228</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.9250634890812</v>
+        <v>144.1518568538937</v>
       </c>
       <c r="AC8" t="n">
-        <v>98.52940830699787</v>
+        <v>130.3942059541989</v>
       </c>
       <c r="AD8" t="n">
-        <v>79609.37828623557</v>
+        <v>105355.3639112228</v>
       </c>
       <c r="AE8" t="n">
-        <v>108925.0634890812</v>
+        <v>144151.8568538937</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.549408546614243e-06</v>
+        <v>8.028731713495719e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>98529.40830699787</v>
+        <v>130394.2059541989</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>78.71328004102357</v>
+        <v>104.2886734654186</v>
       </c>
       <c r="AB9" t="n">
-        <v>107.6989823369183</v>
+        <v>142.692363926884</v>
       </c>
       <c r="AC9" t="n">
-        <v>97.42034261918128</v>
+        <v>129.0740049837313</v>
       </c>
       <c r="AD9" t="n">
-        <v>78713.28004102356</v>
+        <v>104288.6734654186</v>
       </c>
       <c r="AE9" t="n">
-        <v>107698.9823369183</v>
+        <v>142692.363926884</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.596311816468674e-06</v>
+        <v>8.096590074793821e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.474537037037038</v>
       </c>
       <c r="AH9" t="n">
-        <v>97420.34261918129</v>
+        <v>129074.0049837313</v>
       </c>
     </row>
     <row r="10">
@@ -11325,28 +11325,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>78.01078792971242</v>
+        <v>103.5861813541074</v>
       </c>
       <c r="AB10" t="n">
-        <v>106.7378016384582</v>
+        <v>141.7311832284239</v>
       </c>
       <c r="AC10" t="n">
-        <v>96.55089565755631</v>
+        <v>128.2045580221063</v>
       </c>
       <c r="AD10" t="n">
-        <v>78010.78792971242</v>
+        <v>103586.1813541074</v>
       </c>
       <c r="AE10" t="n">
-        <v>106737.8016384582</v>
+        <v>141731.1832284239</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.619287007345449e-06</v>
+        <v>8.12982994928973e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>96550.89565755631</v>
+        <v>128204.5580221063</v>
       </c>
     </row>
     <row r="11">
@@ -11431,28 +11431,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>78.12174062497041</v>
+        <v>103.6971340493654</v>
       </c>
       <c r="AB11" t="n">
-        <v>106.8896120109976</v>
+        <v>141.8829936009632</v>
       </c>
       <c r="AC11" t="n">
-        <v>96.68821746120777</v>
+        <v>128.3418798257578</v>
       </c>
       <c r="AD11" t="n">
-        <v>78121.74062497041</v>
+        <v>103697.1340493654</v>
       </c>
       <c r="AE11" t="n">
-        <v>106889.6120109976</v>
+        <v>141882.9936009632</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.619445822028929e-06</v>
+        <v>8.130059718007444e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>96688.21746120777</v>
+        <v>128341.8798257578</v>
       </c>
     </row>
   </sheetData>
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.57753245218544</v>
+        <v>123.8754285304091</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.3004200166232</v>
+        <v>169.4918263134385</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.3419237905137</v>
+        <v>153.3157642934032</v>
       </c>
       <c r="AD2" t="n">
-        <v>91577.53245218543</v>
+        <v>123875.4285304091</v>
       </c>
       <c r="AE2" t="n">
-        <v>125300.4200166232</v>
+        <v>169491.8263134385</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.891006196575489e-06</v>
+        <v>7.344748752546335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.776620370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>113341.9237905137</v>
+        <v>153315.7642934032</v>
       </c>
     </row>
     <row r="3">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.93518026316229</v>
+        <v>98.22260796275877</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.1613754259668</v>
+        <v>134.3925054902264</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.50667573621995</v>
+        <v>121.5662733873412</v>
       </c>
       <c r="AD3" t="n">
-        <v>73935.1802631623</v>
+        <v>98222.60796275878</v>
       </c>
       <c r="AE3" t="n">
-        <v>101161.3754259668</v>
+        <v>134392.5054902264</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.792452754977594e-06</v>
+        <v>8.698437179673411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.72337962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>91506.67573621994</v>
+        <v>121566.2733873412</v>
       </c>
     </row>
     <row r="4">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.0095796877616</v>
+        <v>95.12641518676587</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.15843965031733</v>
+        <v>130.1561579397302</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.88577453284158</v>
+        <v>117.7342369013118</v>
       </c>
       <c r="AD4" t="n">
-        <v>71009.57968776159</v>
+        <v>95126.41518676587</v>
       </c>
       <c r="AE4" t="n">
-        <v>97158.43965031733</v>
+        <v>130156.1579397301</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.086196045831749e-06</v>
+        <v>9.139546960025047e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.445601851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>87885.77453284158</v>
+        <v>117734.2369013118</v>
       </c>
     </row>
     <row r="5">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.28546714422319</v>
+        <v>93.40230264322746</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.79943280577208</v>
+        <v>127.7971510951849</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.75190799065206</v>
+        <v>115.6003703591223</v>
       </c>
       <c r="AD5" t="n">
-        <v>69285.46714422319</v>
+        <v>93402.30264322746</v>
       </c>
       <c r="AE5" t="n">
-        <v>94799.43280577208</v>
+        <v>127797.1510951849</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.230175502491399e-06</v>
+        <v>9.355758694827936e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.318287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>85751.90799065206</v>
+        <v>115600.3703591223</v>
       </c>
     </row>
     <row r="6">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>69.30022847811695</v>
+        <v>93.41706397712122</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.81962991402959</v>
+        <v>127.8173482034424</v>
       </c>
       <c r="AC6" t="n">
-        <v>85.7701775152443</v>
+        <v>115.6186398837146</v>
       </c>
       <c r="AD6" t="n">
-        <v>69300.22847811694</v>
+        <v>93417.06397712122</v>
       </c>
       <c r="AE6" t="n">
-        <v>94819.62991402959</v>
+        <v>127817.3482034424</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.24964766448992e-06</v>
+        <v>9.384999740903108e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.300925925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>85770.1775152443</v>
+        <v>115618.6398837146</v>
       </c>
     </row>
   </sheetData>
@@ -12449,28 +12449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.08994032462165</v>
+        <v>104.5792649548421</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.9508337877873</v>
+        <v>143.0899640227047</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.3618419315825</v>
+        <v>129.4336586844423</v>
       </c>
       <c r="AD2" t="n">
-        <v>81089.94032462165</v>
+        <v>104579.2649548421</v>
       </c>
       <c r="AE2" t="n">
-        <v>110950.8337877873</v>
+        <v>143089.9640227047</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.586623290091662e-06</v>
+        <v>8.568465308405023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.180555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>100361.8419315825</v>
+        <v>129433.6586844423</v>
       </c>
     </row>
     <row r="3">
@@ -12555,28 +12555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.81701231013926</v>
+        <v>90.22099608578803</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.42198400123866</v>
+        <v>123.4443471139585</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.69679815974308</v>
+        <v>111.662991880664</v>
       </c>
       <c r="AD3" t="n">
-        <v>66817.01231013927</v>
+        <v>90220.99608578804</v>
       </c>
       <c r="AE3" t="n">
-        <v>91421.98400123866</v>
+        <v>123444.3471139585</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.371178609521376e-06</v>
+        <v>9.771774478898211e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>82696.79815974308</v>
+        <v>111662.991880664</v>
       </c>
     </row>
     <row r="4">
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.52854885375535</v>
+        <v>88.93253262940414</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.65905145721916</v>
+        <v>121.681414569939</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.10211742343287</v>
+        <v>110.0683111443538</v>
       </c>
       <c r="AD4" t="n">
-        <v>65528.54885375535</v>
+        <v>88932.53262940413</v>
       </c>
       <c r="AE4" t="n">
-        <v>89659.05145721916</v>
+        <v>121681.414569939</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.513998580224344e-06</v>
+        <v>9.990824144639271e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.300925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>81102.11742343288</v>
+        <v>110068.3111443538</v>
       </c>
     </row>
   </sheetData>
@@ -22691,28 +22691,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.17063447780089</v>
+        <v>89.1754147480748</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.53758133485636</v>
+        <v>122.0137365999069</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.89680164257308</v>
+        <v>110.3689168261986</v>
       </c>
       <c r="AD2" t="n">
-        <v>66170.63447780089</v>
+        <v>89175.41474807481</v>
       </c>
       <c r="AE2" t="n">
-        <v>90537.58133485635</v>
+        <v>122013.7365999069</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.191902172612029e-06</v>
+        <v>9.674725007172488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.769675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>81896.80164257307</v>
+        <v>110368.9168261986</v>
       </c>
     </row>
     <row r="3">
@@ -22797,28 +22797,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.70083530044451</v>
+        <v>85.53502337012623</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.79004902366364</v>
+        <v>117.0327925138673</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.60236715195563</v>
+        <v>105.8633470529301</v>
       </c>
       <c r="AD3" t="n">
-        <v>62700.83530044451</v>
+        <v>85535.02337012622</v>
       </c>
       <c r="AE3" t="n">
-        <v>85790.04902366364</v>
+        <v>117032.7925138673</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.69677541273142e-06</v>
+        <v>1.046357948604982e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.335648148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>77602.36715195564</v>
+        <v>105863.3470529301</v>
       </c>
     </row>
   </sheetData>
@@ -23094,28 +23094,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.47992725717916</v>
+        <v>79.35519573467296</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.6465723086646</v>
+        <v>108.5772797082907</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.14065382870129</v>
+        <v>98.21481652212827</v>
       </c>
       <c r="AD2" t="n">
-        <v>57479.92725717917</v>
+        <v>79355.19573467296</v>
       </c>
       <c r="AE2" t="n">
-        <v>78646.5723086646</v>
+        <v>108577.2797082907</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.806887701313214e-06</v>
+        <v>1.109302242749229e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.630787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>71140.6538287013</v>
+        <v>98214.81652212827</v>
       </c>
     </row>
   </sheetData>
@@ -23391,28 +23391,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.3209910500245</v>
+        <v>144.3391814063166</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.3142910900929</v>
+        <v>197.4912357953017</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.7776289229462</v>
+        <v>178.6429494317444</v>
       </c>
       <c r="AD2" t="n">
-        <v>111320.9910500245</v>
+        <v>144339.1814063166</v>
       </c>
       <c r="AE2" t="n">
-        <v>152314.2910900929</v>
+        <v>197491.2357953017</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.309915893153465e-06</v>
+        <v>6.367387010711601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.436342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>137777.6289229462</v>
+        <v>178642.9494317444</v>
       </c>
     </row>
     <row r="3">
@@ -23497,28 +23497,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.32075658594171</v>
+        <v>114.1270921575844</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.2125997145056</v>
+        <v>156.1537224218982</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.5488007242462</v>
+        <v>141.2506303171209</v>
       </c>
       <c r="AD3" t="n">
-        <v>89320.75658594171</v>
+        <v>114127.0921575844</v>
       </c>
       <c r="AE3" t="n">
-        <v>122212.5997145056</v>
+        <v>156153.7224218982</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.294749899070431e-06</v>
+        <v>7.822361866936592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.053240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>110548.8007242462</v>
+        <v>141250.6303171209</v>
       </c>
     </row>
     <row r="4">
@@ -23603,28 +23603,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.05151475030654</v>
+        <v>101.9431016679698</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.4252817542499</v>
+        <v>139.4830491142917</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.36364082896318</v>
+        <v>126.1709826725501</v>
       </c>
       <c r="AD4" t="n">
-        <v>77051.51475030654</v>
+        <v>101943.1016679698</v>
       </c>
       <c r="AE4" t="n">
-        <v>105425.2817542499</v>
+        <v>139483.0491142917</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.653143285553516e-06</v>
+        <v>8.351845376682679e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.671296296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>95363.64082896318</v>
+        <v>126170.9826725501</v>
       </c>
     </row>
     <row r="5">
@@ -23709,28 +23709,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>74.95335887427791</v>
+        <v>99.84494579194117</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.5544923205645</v>
+        <v>136.6122596806063</v>
       </c>
       <c r="AC5" t="n">
-        <v>92.7668355096496</v>
+        <v>123.5741773532365</v>
       </c>
       <c r="AD5" t="n">
-        <v>74953.35887427791</v>
+        <v>99844.94579194117</v>
       </c>
       <c r="AE5" t="n">
-        <v>102554.4923205645</v>
+        <v>136612.2596806063</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.824529551052536e-06</v>
+        <v>8.605048155531889e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.503472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>92766.83550964959</v>
+        <v>123574.1773532365</v>
       </c>
     </row>
     <row r="6">
@@ -23815,28 +23815,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>73.49265066003159</v>
+        <v>98.21364537710264</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5558868999354</v>
+        <v>134.3802424851303</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.95897418530433</v>
+        <v>121.5551807462403</v>
       </c>
       <c r="AD6" t="n">
-        <v>73492.65066003159</v>
+        <v>98213.64537710264</v>
       </c>
       <c r="AE6" t="n">
-        <v>100555.8868999354</v>
+        <v>134380.2424851303</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.926840615169114e-06</v>
+        <v>8.75620055777316e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.41087962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>90958.97418530432</v>
+        <v>121555.1807462403</v>
       </c>
     </row>
     <row r="7">
@@ -23921,28 +23921,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>72.4660280933365</v>
+        <v>97.18702281040757</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.15121661279275</v>
+        <v>132.9755721979877</v>
       </c>
       <c r="AC7" t="n">
-        <v>89.68836365889901</v>
+        <v>120.2845702198349</v>
       </c>
       <c r="AD7" t="n">
-        <v>72466.0280933365</v>
+        <v>97187.02281040756</v>
       </c>
       <c r="AE7" t="n">
-        <v>99151.21661279275</v>
+        <v>132975.5721979877</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.008268478867745e-06</v>
+        <v>8.876500520574822e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.335648148148149</v>
       </c>
       <c r="AH7" t="n">
-        <v>89688.363658899</v>
+        <v>120284.5702198349</v>
       </c>
     </row>
   </sheetData>
@@ -24218,28 +24218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.8907480944795</v>
+        <v>171.921428111285</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.6682048532508</v>
+        <v>235.2304825798647</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.6619761795983</v>
+        <v>212.7804154705663</v>
       </c>
       <c r="AD2" t="n">
-        <v>137890.7480944795</v>
+        <v>171921.428111285</v>
       </c>
       <c r="AE2" t="n">
-        <v>188668.2048532508</v>
+        <v>235230.4825798647</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.657925839941137e-06</v>
+        <v>5.311926566230527e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.443287037037036</v>
       </c>
       <c r="AH2" t="n">
-        <v>170661.9761795983</v>
+        <v>212780.4154705663</v>
       </c>
     </row>
     <row r="3">
@@ -24324,28 +24324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.77752001756375</v>
+        <v>124.2792171936627</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.1517606446023</v>
+        <v>170.0443077764004</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.253066295405</v>
+        <v>153.8155177009529</v>
       </c>
       <c r="AD3" t="n">
-        <v>98777.52001756374</v>
+        <v>124279.2171936627</v>
       </c>
       <c r="AE3" t="n">
-        <v>135151.7606446023</v>
+        <v>170044.3077764004</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.752026148446763e-06</v>
+        <v>6.900745134232323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.498842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>122253.066295405</v>
+        <v>153815.5177009529</v>
       </c>
     </row>
     <row r="4">
@@ -24430,28 +24430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.85816655998802</v>
+        <v>118.8034162136709</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.1066871654217</v>
+        <v>162.5520753002896</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.0256278991428</v>
+        <v>147.0383333769454</v>
       </c>
       <c r="AD4" t="n">
-        <v>84858.16655998802</v>
+        <v>118803.4162136709</v>
       </c>
       <c r="AE4" t="n">
-        <v>116106.6871654217</v>
+        <v>162552.0753002896</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.15028357157017e-06</v>
+        <v>7.479082224336309e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.99537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>105025.6278991428</v>
+        <v>147038.3333769454</v>
       </c>
     </row>
     <row r="5">
@@ -24536,28 +24536,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.50257864163559</v>
+        <v>108.0895271637552</v>
       </c>
       <c r="AB5" t="n">
-        <v>112.883667854329</v>
+        <v>147.8928596387763</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.1102090275637</v>
+        <v>133.7781726838239</v>
       </c>
       <c r="AD5" t="n">
-        <v>82502.5786416356</v>
+        <v>108089.5271637552</v>
       </c>
       <c r="AE5" t="n">
-        <v>112883.667854329</v>
+        <v>147892.8596387763</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.337855825270163e-06</v>
+        <v>7.751468839351107e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.787037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>102110.2090275637</v>
+        <v>133778.1726838239</v>
       </c>
     </row>
     <row r="6">
@@ -24642,28 +24642,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>80.70686460045539</v>
+        <v>106.293813122575</v>
       </c>
       <c r="AB6" t="n">
-        <v>110.4266926818751</v>
+        <v>145.4358844663224</v>
       </c>
       <c r="AC6" t="n">
-        <v>99.88772411718173</v>
+        <v>131.5556877734419</v>
       </c>
       <c r="AD6" t="n">
-        <v>80706.86460045539</v>
+        <v>106293.813122575</v>
       </c>
       <c r="AE6" t="n">
-        <v>110426.6926818751</v>
+        <v>145435.8844663224</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.480056304455361e-06</v>
+        <v>7.957967969231421e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.636574074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>99887.72411718173</v>
+        <v>131555.6877734419</v>
       </c>
     </row>
     <row r="7">
@@ -24748,28 +24748,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>79.34611456816978</v>
+        <v>104.9330630902894</v>
       </c>
       <c r="AB7" t="n">
-        <v>108.5648544556483</v>
+        <v>143.5740462400956</v>
       </c>
       <c r="AC7" t="n">
-        <v>98.20357711815903</v>
+        <v>129.8715407744192</v>
       </c>
       <c r="AD7" t="n">
-        <v>79346.11456816978</v>
+        <v>104933.0630902893</v>
       </c>
       <c r="AE7" t="n">
-        <v>108564.8544556483</v>
+        <v>143574.0462400956</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.56124509155772e-06</v>
+        <v>8.075867810277951e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.555555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>98203.57711815904</v>
+        <v>129871.5407744192</v>
       </c>
     </row>
     <row r="8">
@@ -24854,28 +24854,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>78.23646743181135</v>
+        <v>103.6528237533387</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.0465862895068</v>
+        <v>141.8223662991073</v>
       </c>
       <c r="AC8" t="n">
-        <v>96.83021033489086</v>
+        <v>128.2870387085</v>
       </c>
       <c r="AD8" t="n">
-        <v>78236.46743181135</v>
+        <v>103652.8237533387</v>
       </c>
       <c r="AE8" t="n">
-        <v>107046.5862895068</v>
+        <v>141822.3662991073</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.629516267562925e-06</v>
+        <v>8.175009096733251e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AH8" t="n">
-        <v>96830.21033489087</v>
+        <v>128287.0387085</v>
       </c>
     </row>
     <row r="9">
@@ -24960,28 +24960,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>77.10791954164604</v>
+        <v>102.5242758631734</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.5024572781643</v>
+        <v>140.2782372877649</v>
       </c>
       <c r="AC9" t="n">
-        <v>95.4334508291918</v>
+        <v>126.8902792028009</v>
       </c>
       <c r="AD9" t="n">
-        <v>77107.91954164604</v>
+        <v>102524.2758631734</v>
       </c>
       <c r="AE9" t="n">
-        <v>105502.4572781643</v>
+        <v>140278.2372877648</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.669016400669925e-06</v>
+        <v>8.232369966144451e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>95433.4508291918</v>
+        <v>126890.2792028009</v>
       </c>
     </row>
     <row r="10">
@@ -25066,28 +25066,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>76.98277938995005</v>
+        <v>102.3991357114774</v>
       </c>
       <c r="AB10" t="n">
-        <v>105.3312350018201</v>
+        <v>140.1070150114207</v>
       </c>
       <c r="AC10" t="n">
-        <v>95.27856976658985</v>
+        <v>126.735398140199</v>
       </c>
       <c r="AD10" t="n">
-        <v>76982.77938995005</v>
+        <v>102399.1357114774</v>
       </c>
       <c r="AE10" t="n">
-        <v>105331.2350018201</v>
+        <v>140107.0150114206</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.673179928213635e-06</v>
+        <v>8.238416111839143e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.445601851851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>95278.56976658985</v>
+        <v>126735.398140199</v>
       </c>
     </row>
   </sheetData>
@@ -25363,28 +25363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.30321925966309</v>
+        <v>83.56495982442554</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.24601321508506</v>
+        <v>114.3372646575713</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.11025335738859</v>
+        <v>103.4250765920411</v>
       </c>
       <c r="AD2" t="n">
-        <v>62303.21925966308</v>
+        <v>83564.95982442555</v>
       </c>
       <c r="AE2" t="n">
-        <v>85246.01321508505</v>
+        <v>114337.2646575713</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.582901221989525e-06</v>
+        <v>1.097330413410948e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.030092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>77110.25335738859</v>
+        <v>103425.0765920411</v>
       </c>
     </row>
   </sheetData>
@@ -25660,28 +25660,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.60700288365923</v>
+        <v>108.349374465086</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.7630339429094</v>
+        <v>148.2483941801108</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.7147724578667</v>
+        <v>134.0997755075293</v>
       </c>
       <c r="AD2" t="n">
-        <v>84607.00288365924</v>
+        <v>108349.374465086</v>
       </c>
       <c r="AE2" t="n">
-        <v>115763.0339429094</v>
+        <v>148248.3941801108</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.333474172456794e-06</v>
+        <v>8.117049659844418e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.377314814814814</v>
       </c>
       <c r="AH2" t="n">
-        <v>104714.7724578667</v>
+        <v>134099.7755075293</v>
       </c>
     </row>
     <row r="3">
@@ -25766,28 +25766,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.25251500590834</v>
+        <v>93.08013793335563</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.75434623638395</v>
+        <v>127.3563511262345</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.71112442016695</v>
+        <v>115.2016397205418</v>
       </c>
       <c r="AD3" t="n">
-        <v>69252.51500590834</v>
+        <v>93080.13793335563</v>
       </c>
       <c r="AE3" t="n">
-        <v>94754.34623638395</v>
+        <v>127356.3511262345</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.15738670416816e-06</v>
+        <v>9.370967597575553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.526620370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>85711.12442016695</v>
+        <v>115201.6397205418</v>
       </c>
     </row>
     <row r="4">
@@ -25872,28 +25872,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.82527599043073</v>
+        <v>90.48230671728582</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.43329073318128</v>
+        <v>123.801883848185</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.70702579305822</v>
+        <v>111.986405810782</v>
       </c>
       <c r="AD4" t="n">
-        <v>66825.27599043073</v>
+        <v>90482.30671728583</v>
       </c>
       <c r="AE4" t="n">
-        <v>91433.29073318127</v>
+        <v>123801.883848185</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.414172286652301e-06</v>
+        <v>9.761771275920868e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.306712962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>82707.02579305822</v>
+        <v>111986.405810782</v>
       </c>
     </row>
     <row r="5">
@@ -25978,28 +25978,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.87981175170636</v>
+        <v>90.53684247856145</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.50790896770653</v>
+        <v>123.8765020827102</v>
       </c>
       <c r="AC5" t="n">
-        <v>82.77452256800773</v>
+        <v>112.0539025857316</v>
       </c>
       <c r="AD5" t="n">
-        <v>66879.81175170635</v>
+        <v>90536.84247856145</v>
       </c>
       <c r="AE5" t="n">
-        <v>91507.90896770652</v>
+        <v>123876.5020827102</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.41946319837931e-06</v>
+        <v>9.769823549513148e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.300925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>82774.52256800773</v>
+        <v>112053.9025857316</v>
       </c>
     </row>
   </sheetData>
@@ -26275,28 +26275,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.25018933926451</v>
+        <v>127.8297330968172</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.3255111957089</v>
+        <v>174.9022802728006</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.8874273202288</v>
+        <v>158.2098521205054</v>
       </c>
       <c r="AD2" t="n">
-        <v>95250.18933926451</v>
+        <v>127829.7330968172</v>
       </c>
       <c r="AE2" t="n">
-        <v>130325.5111957089</v>
+        <v>174902.2802728006</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.686492802673881e-06</v>
+        <v>6.996515222565938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.99074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>117887.4273202288</v>
+        <v>158209.8521205054</v>
       </c>
     </row>
     <row r="3">
@@ -26381,28 +26381,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.30004024442314</v>
+        <v>100.7987037035164</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.3970811825853</v>
+        <v>137.9172333320523</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.43357027676944</v>
+        <v>124.754606150931</v>
       </c>
       <c r="AD3" t="n">
-        <v>76300.04024442314</v>
+        <v>100798.7037035164</v>
       </c>
       <c r="AE3" t="n">
-        <v>104397.0811825853</v>
+        <v>137917.2333320523</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.613376934758272e-06</v>
+        <v>8.380270455473424e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>94433.57027676945</v>
+        <v>124754.606150931</v>
       </c>
     </row>
     <row r="4">
@@ -26487,28 +26487,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.01259462517196</v>
+        <v>97.51125808426518</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.89905305446324</v>
+        <v>133.4192052039302</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.36482764017174</v>
+        <v>120.6858635143333</v>
       </c>
       <c r="AD4" t="n">
-        <v>73012.59462517196</v>
+        <v>97511.25808426518</v>
       </c>
       <c r="AE4" t="n">
-        <v>99899.05305446323</v>
+        <v>133419.2052039302</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.943129435584094e-06</v>
+        <v>8.872561490336577e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.50925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>90364.82764017174</v>
+        <v>120685.8635143333</v>
       </c>
     </row>
     <row r="5">
@@ -26593,28 +26593,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.99102243155514</v>
+        <v>95.31909369005615</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.13304879368729</v>
+        <v>130.4197891683074</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.86280694393201</v>
+        <v>117.9727075354426</v>
       </c>
       <c r="AD5" t="n">
-        <v>70991.02243155513</v>
+        <v>95319.09369005615</v>
       </c>
       <c r="AE5" t="n">
-        <v>97133.0487936873</v>
+        <v>130419.7891683074</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.118589914911256e-06</v>
+        <v>9.13450831630221e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.35300925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>87862.80694393201</v>
+        <v>117972.7075354425</v>
       </c>
     </row>
     <row r="6">
@@ -26699,28 +26699,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.4526759529318</v>
+        <v>94.78074721143281</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.39645939146477</v>
+        <v>129.6831997660849</v>
       </c>
       <c r="AC6" t="n">
-        <v>87.19651660044767</v>
+        <v>117.3064171919582</v>
       </c>
       <c r="AD6" t="n">
-        <v>70452.67595293179</v>
+        <v>94780.74721143281</v>
       </c>
       <c r="AE6" t="n">
-        <v>96396.45939146477</v>
+        <v>129683.1997660849</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.147172992995197e-06</v>
+        <v>9.177180299241774e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.329861111111112</v>
       </c>
       <c r="AH6" t="n">
-        <v>87196.51660044766</v>
+        <v>117306.4171919582</v>
       </c>
     </row>
   </sheetData>
